--- a/Advance/A0/Data/Swagger/Swagger.xlsx
+++ b/Advance/A0/Data/Swagger/Swagger.xlsx
@@ -36,16 +36,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>available</t>
+    <t>pending</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold</t>
   </si>
 </sst>
 </file>
@@ -441,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>200</v>
@@ -452,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>200</v>
@@ -463,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>400</v>
